--- a/doc/手順書/会社ホームページAWSへ移行.xlsx
+++ b/doc/手順書/会社ホームページAWSへ移行.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\AWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lisl\Documents\GitHub\aws\doc\手順書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6AF1EB-1426-45C6-9433-5529183E9FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88FBBE6-717E-4874-B66D-01821827AFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S3設定" sheetId="2" r:id="rId1"/>
@@ -338,8 +338,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>169371</xdr:colOff>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>42371</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>37083</xdr:rowOff>
     </xdr:to>
@@ -382,8 +382,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>427971</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>46971</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>227827</xdr:rowOff>
     </xdr:to>
@@ -426,8 +426,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>8152</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>198652</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>66131</xdr:rowOff>
     </xdr:to>
@@ -470,8 +470,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>389362</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>182987</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>208958</xdr:rowOff>
     </xdr:to>
@@ -514,8 +514,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>683743</xdr:colOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>80493</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>160893</xdr:rowOff>
     </xdr:to>
@@ -558,8 +558,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>93781</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>141406</xdr:colOff>
       <xdr:row>179</xdr:row>
       <xdr:rowOff>180179</xdr:rowOff>
     </xdr:to>
@@ -602,8 +602,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>36038</xdr:colOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>115413</xdr:colOff>
       <xdr:row>206</xdr:row>
       <xdr:rowOff>104018</xdr:rowOff>
     </xdr:to>
@@ -645,16 +645,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>26686</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>170357</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>91767</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -677,8 +677,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="238125"/>
-          <a:ext cx="15114286" cy="8742857"/>
+          <a:off x="190500" y="238125"/>
+          <a:ext cx="13522017" cy="7858125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -700,8 +700,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>580009</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>40259</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>179881</xdr:rowOff>
     </xdr:to>
@@ -744,8 +744,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>274905</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>195530</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>208661</xdr:rowOff>
     </xdr:to>
@@ -788,8 +788,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>113257</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>49757</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>84851</xdr:rowOff>
     </xdr:to>
@@ -832,8 +832,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>113257</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>49757</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>75268</xdr:rowOff>
     </xdr:to>
@@ -876,8 +876,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>265638</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>202138</xdr:colOff>
       <xdr:row>164</xdr:row>
       <xdr:rowOff>180089</xdr:rowOff>
     </xdr:to>
@@ -920,8 +920,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>674562</xdr:colOff>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>23687</xdr:colOff>
       <xdr:row>203</xdr:row>
       <xdr:rowOff>46518</xdr:rowOff>
     </xdr:to>
@@ -969,8 +969,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>36552</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>147677</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>94286</xdr:rowOff>
     </xdr:to>
@@ -1271,13 +1271,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1382F3-425B-4A37-A2BF-BB72BA6DE1FA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B84:B95"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="B213" sqref="B213"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
@@ -1341,20 +1342,26 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCD3E36-5DE9-4EF0-935A-AF571B491F34}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A40:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
@@ -1603,20 +1610,30 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="39" max="16383" man="1"/>
+    <brk id="78" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A71:A135"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
@@ -1635,24 +1652,34 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B585A27A-E96B-42C3-BC83-F30A3F9E6366}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/手順書/会社ホームページAWSへ移行.xlsx
+++ b/doc/手順書/会社ホームページAWSへ移行.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lisl\Documents\GitHub\aws\doc\手順書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisl\Documents\GitHub\aws\doc\手順書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88FBBE6-717E-4874-B66D-01821827AFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD86CFC7-92B0-405E-BF61-F5CDAD90D236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S3設定" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <r>
       <rPr>
@@ -134,9 +134,6 @@
     <t>$ cd dokuwiki-2020-07-29/        # リリース日の日付のフォルダ名が作成されてる</t>
   </si>
   <si>
-    <t>$ sudo mkdir /var/www/dokuwiki</t>
-  </si>
-  <si>
     <t>$ sudo chown www-data:www-data /var/www/dokuwiki/</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>アップロードサイズの上限値を変更</t>
   </si>
   <si>
-    <t>「/etc/php/7.2/apache2/php.ini」ファイルの設定を変更</t>
-  </si>
-  <si>
     <t>memory_limit = 128M</t>
   </si>
   <si>
@@ -208,49 +202,67 @@
     <t>upload_max_filesize = 30M</t>
   </si>
   <si>
+    <t>Alias /dokuwiki /var/www/dokuwiki</t>
+  </si>
+  <si>
+    <t>&lt;Directory /var/www/dokuwiki&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Options FollowSymLinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AllowOverride All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Order allow,deny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Allow from all</t>
+  </si>
+  <si>
+    <t>&lt;/Directory&gt;</t>
+  </si>
+  <si>
+    <t>下記コマンドで、サイトの有効化と定義ファイルのチェック</t>
+  </si>
+  <si>
+    <t>DokuWikiの初期設定</t>
+  </si>
+  <si>
+    <t>Webブラウザから下記URLにアクセス</t>
+  </si>
+  <si>
+    <t>http://[サーバIP]/dokuwiki/install.php</t>
+  </si>
+  <si>
+    <t>DokuWikiの起動</t>
+  </si>
+  <si>
+    <t>http://[サーバIP]/dokuwiki/</t>
+  </si>
+  <si>
+    <t>「/etc/php/7.4/apache2/php.ini」ファイルの設定を変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ sudo mkdir /var/www/dokuwiki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>下記の/etc/apache2/sites-available/003-dokuwiki.confファイルを作成。</t>
-  </si>
-  <si>
-    <t>Alias /dokuwiki /var/www/dokuwiki</t>
-  </si>
-  <si>
-    <t>&lt;Directory /var/www/dokuwiki&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Options FollowSymLinks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    AllowOverride All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Order allow,deny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Allow from all</t>
-  </si>
-  <si>
-    <t>&lt;/Directory&gt;</t>
-  </si>
-  <si>
-    <t>下記コマンドで、サイトの有効化と定義ファイルのチェック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>$ sudo a2ensite 003-dokuwiki</t>
-  </si>
-  <si>
-    <t>DokuWikiの初期設定</t>
-  </si>
-  <si>
-    <t>Webブラウザから下記URLにアクセス</t>
-  </si>
-  <si>
-    <t>http://[サーバIP]/dokuwiki/install.php</t>
-  </si>
-  <si>
-    <t>DokuWikiの起動</t>
-  </si>
-  <si>
-    <t>http://[サーバIP]/dokuwiki/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ sudo apache2ctl configtest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ sudo service apache2 restart</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1359,7 +1371,9 @@
   </sheetPr>
   <dimension ref="A40:D104"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB93" sqref="AB93"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <sheetData>
@@ -1400,212 +1414,212 @@
     </row>
     <row r="48" spans="1:3">
       <c r="C48" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="C49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="C50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="C53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="C54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="C58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="C61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="C62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="C63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="B66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="C67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="C70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="C71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="B73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="C74" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="D75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="D76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="D77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="B80" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="B81" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="B84" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="B86" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="B89" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="B90" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="B92" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1669,7 +1683,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
   <sheetData/>
